--- a/SMT/limit_trade.xlsx
+++ b/SMT/limit_trade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPL-JUNO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880E4E8-C0AC-4A16-852E-7607C9403F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F72B1B-BC23-410D-8723-FDA5E66F7820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="900" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="10">
   <si>
     <t>periods</t>
   </si>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>lots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,7 +119,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -183,6 +191,79 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -367,23 +448,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}" name="Table1" displayName="Table1" ref="A1:E182" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:E181" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2410"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowCount="1" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
     <sortCondition descending="1" ref="C3:C61"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7EA9A56C-B589-4323-83FB-F5E18727162E}" name="price" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3F4DD5BD-762C-4EC4-B45C-414E85A52898}" name="lots" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,23 +754,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,10 +785,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2410</v>
       </c>
@@ -722,8 +807,18 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6100</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>-2995.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2410</v>
       </c>
@@ -736,8 +831,18 @@
       <c r="D3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6100</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>2812.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2410</v>
       </c>
@@ -748,10 +853,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3300</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>-1729.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2410</v>
       </c>
@@ -762,10 +877,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3300</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>1646.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2410</v>
       </c>
@@ -778,8 +903,12 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2410</v>
       </c>
@@ -792,8 +921,12 @@
       <c r="D7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2410</v>
       </c>
@@ -806,8 +939,12 @@
       <c r="D8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2410</v>
       </c>
@@ -820,8 +957,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2410</v>
       </c>
@@ -834,8 +975,12 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2410</v>
       </c>
@@ -848,8 +993,12 @@
       <c r="D11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2410</v>
       </c>
@@ -862,8 +1011,12 @@
       <c r="D12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2410</v>
       </c>
@@ -876,8 +1029,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2410</v>
       </c>
@@ -890,8 +1047,12 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2410</v>
       </c>
@@ -904,8 +1065,12 @@
       <c r="D15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2410</v>
       </c>
@@ -918,8 +1083,12 @@
       <c r="D16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2410</v>
       </c>
@@ -932,8 +1101,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2410</v>
       </c>
@@ -946,8 +1119,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2410</v>
       </c>
@@ -960,8 +1137,12 @@
       <c r="D19" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2410</v>
       </c>
@@ -974,8 +1155,12 @@
       <c r="D20" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2410</v>
       </c>
@@ -988,8 +1173,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2410</v>
       </c>
@@ -1002,8 +1191,12 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2410</v>
       </c>
@@ -1016,8 +1209,12 @@
       <c r="D23" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2410</v>
       </c>
@@ -1030,8 +1227,12 @@
       <c r="D24" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2410</v>
       </c>
@@ -1044,8 +1245,12 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2410</v>
       </c>
@@ -1058,8 +1263,12 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2410</v>
       </c>
@@ -1072,8 +1281,12 @@
       <c r="D27" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2410</v>
       </c>
@@ -1086,8 +1299,12 @@
       <c r="D28" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2410</v>
       </c>
@@ -1100,8 +1317,12 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2410</v>
       </c>
@@ -1114,8 +1335,12 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2410</v>
       </c>
@@ -1128,8 +1353,12 @@
       <c r="D31" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2410</v>
       </c>
@@ -1142,8 +1371,12 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2410</v>
       </c>
@@ -1156,8 +1389,12 @@
       <c r="D33" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2410</v>
       </c>
@@ -1170,8 +1407,12 @@
       <c r="D34" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2410</v>
       </c>
@@ -1184,8 +1425,12 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2410</v>
       </c>
@@ -1198,8 +1443,12 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2410</v>
       </c>
@@ -1212,8 +1461,12 @@
       <c r="D37" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2410</v>
       </c>
@@ -1226,8 +1479,12 @@
       <c r="D38" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2410</v>
       </c>
@@ -1240,8 +1497,12 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2410</v>
       </c>
@@ -1254,8 +1515,12 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2410</v>
       </c>
@@ -1268,8 +1533,12 @@
       <c r="D41" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2410</v>
       </c>
@@ -1282,8 +1551,12 @@
       <c r="D42" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2410</v>
       </c>
@@ -1296,8 +1569,12 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2410</v>
       </c>
@@ -1310,8 +1587,12 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2410</v>
       </c>
@@ -1324,8 +1605,12 @@
       <c r="D45" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2410</v>
       </c>
@@ -1338,8 +1623,12 @@
       <c r="D46" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2410</v>
       </c>
@@ -1352,8 +1641,12 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2410</v>
       </c>
@@ -1366,8 +1659,12 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2410</v>
       </c>
@@ -1380,8 +1677,12 @@
       <c r="D49" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2410</v>
       </c>
@@ -1394,8 +1695,12 @@
       <c r="D50" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2410</v>
       </c>
@@ -1408,8 +1713,12 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2410</v>
       </c>
@@ -1422,8 +1731,12 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2410</v>
       </c>
@@ -1436,8 +1749,12 @@
       <c r="D53" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2410</v>
       </c>
@@ -1450,8 +1767,12 @@
       <c r="D54" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2410</v>
       </c>
@@ -1464,8 +1785,12 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2410</v>
       </c>
@@ -1478,8 +1803,12 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2410</v>
       </c>
@@ -1492,8 +1821,12 @@
       <c r="D57" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2410</v>
       </c>
@@ -1506,8 +1839,12 @@
       <c r="D58" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2410</v>
       </c>
@@ -1520,8 +1857,12 @@
       <c r="D59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2410</v>
       </c>
@@ -1534,8 +1875,12 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2410</v>
       </c>
@@ -1548,8 +1893,12 @@
       <c r="D61" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2411</v>
       </c>
@@ -1562,8 +1911,12 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2411</v>
       </c>
@@ -1576,8 +1929,12 @@
       <c r="D63" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2411</v>
       </c>
@@ -1590,8 +1947,12 @@
       <c r="D64" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2411</v>
       </c>
@@ -1604,8 +1965,12 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2411</v>
       </c>
@@ -1618,8 +1983,12 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2411</v>
       </c>
@@ -1632,8 +2001,12 @@
       <c r="D67" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2411</v>
       </c>
@@ -1646,8 +2019,12 @@
       <c r="D68" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2411</v>
       </c>
@@ -1660,8 +2037,12 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2411</v>
       </c>
@@ -1674,8 +2055,12 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2411</v>
       </c>
@@ -1688,8 +2073,12 @@
       <c r="D71" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2411</v>
       </c>
@@ -1702,8 +2091,12 @@
       <c r="D72" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2411</v>
       </c>
@@ -1716,8 +2109,12 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2411</v>
       </c>
@@ -1730,8 +2127,12 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2411</v>
       </c>
@@ -1744,8 +2145,12 @@
       <c r="D75" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2411</v>
       </c>
@@ -1758,8 +2163,12 @@
       <c r="D76" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2411</v>
       </c>
@@ -1772,8 +2181,12 @@
       <c r="D77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2411</v>
       </c>
@@ -1786,8 +2199,12 @@
       <c r="D78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2411</v>
       </c>
@@ -1800,8 +2217,12 @@
       <c r="D79" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2411</v>
       </c>
@@ -1814,8 +2235,12 @@
       <c r="D80" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2411</v>
       </c>
@@ -1828,8 +2253,12 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2411</v>
       </c>
@@ -1842,8 +2271,12 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2411</v>
       </c>
@@ -1856,8 +2289,12 @@
       <c r="D83" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2411</v>
       </c>
@@ -1870,8 +2307,12 @@
       <c r="D84" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2411</v>
       </c>
@@ -1884,8 +2325,12 @@
       <c r="D85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2411</v>
       </c>
@@ -1898,8 +2343,12 @@
       <c r="D86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2411</v>
       </c>
@@ -1912,8 +2361,12 @@
       <c r="D87" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2411</v>
       </c>
@@ -1926,8 +2379,12 @@
       <c r="D88" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2411</v>
       </c>
@@ -1940,8 +2397,12 @@
       <c r="D89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2411</v>
       </c>
@@ -1954,8 +2415,12 @@
       <c r="D90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2411</v>
       </c>
@@ -1968,8 +2433,12 @@
       <c r="D91" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2411</v>
       </c>
@@ -1982,8 +2451,12 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2411</v>
       </c>
@@ -1996,8 +2469,12 @@
       <c r="D93" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2411</v>
       </c>
@@ -2010,8 +2487,12 @@
       <c r="D94" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2411</v>
       </c>
@@ -2024,8 +2505,12 @@
       <c r="D95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2411</v>
       </c>
@@ -2038,8 +2523,12 @@
       <c r="D96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2411</v>
       </c>
@@ -2052,8 +2541,12 @@
       <c r="D97" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2411</v>
       </c>
@@ -2066,8 +2559,12 @@
       <c r="D98" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2411</v>
       </c>
@@ -2080,8 +2577,12 @@
       <c r="D99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2411</v>
       </c>
@@ -2094,8 +2595,12 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2411</v>
       </c>
@@ -2108,8 +2613,12 @@
       <c r="D101" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2411</v>
       </c>
@@ -2122,8 +2631,12 @@
       <c r="D102" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2411</v>
       </c>
@@ -2136,8 +2649,12 @@
       <c r="D103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2411</v>
       </c>
@@ -2150,8 +2667,12 @@
       <c r="D104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2411</v>
       </c>
@@ -2164,8 +2685,12 @@
       <c r="D105" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2411</v>
       </c>
@@ -2178,8 +2703,12 @@
       <c r="D106" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2411</v>
       </c>
@@ -2192,8 +2721,12 @@
       <c r="D107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2411</v>
       </c>
@@ -2206,8 +2739,12 @@
       <c r="D108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2411</v>
       </c>
@@ -2220,8 +2757,12 @@
       <c r="D109" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2411</v>
       </c>
@@ -2234,8 +2775,12 @@
       <c r="D110" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2411</v>
       </c>
@@ -2248,8 +2793,12 @@
       <c r="D111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2411</v>
       </c>
@@ -2262,8 +2811,12 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2411</v>
       </c>
@@ -2276,8 +2829,12 @@
       <c r="D113" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2411</v>
       </c>
@@ -2290,8 +2847,12 @@
       <c r="D114" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2411</v>
       </c>
@@ -2304,8 +2865,12 @@
       <c r="D115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2411</v>
       </c>
@@ -2318,8 +2883,12 @@
       <c r="D116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2411</v>
       </c>
@@ -2332,8 +2901,12 @@
       <c r="D117" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2411</v>
       </c>
@@ -2346,8 +2919,12 @@
       <c r="D118" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2411</v>
       </c>
@@ -2360,8 +2937,12 @@
       <c r="D119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2411</v>
       </c>
@@ -2374,8 +2955,12 @@
       <c r="D120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2411</v>
       </c>
@@ -2388,8 +2973,12 @@
       <c r="D121" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2412</v>
       </c>
@@ -2402,8 +2991,12 @@
       <c r="D122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2412</v>
       </c>
@@ -2416,8 +3009,12 @@
       <c r="D123" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2412</v>
       </c>
@@ -2430,8 +3027,12 @@
       <c r="D124" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2412</v>
       </c>
@@ -2444,8 +3045,12 @@
       <c r="D125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2412</v>
       </c>
@@ -2458,8 +3063,12 @@
       <c r="D126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2412</v>
       </c>
@@ -2472,8 +3081,12 @@
       <c r="D127" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2412</v>
       </c>
@@ -2486,8 +3099,12 @@
       <c r="D128" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2412</v>
       </c>
@@ -2500,8 +3117,12 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2412</v>
       </c>
@@ -2514,8 +3135,12 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2412</v>
       </c>
@@ -2528,8 +3153,12 @@
       <c r="D131" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2412</v>
       </c>
@@ -2542,8 +3171,12 @@
       <c r="D132" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2412</v>
       </c>
@@ -2556,8 +3189,12 @@
       <c r="D133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2412</v>
       </c>
@@ -2570,8 +3207,12 @@
       <c r="D134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2412</v>
       </c>
@@ -2584,8 +3225,12 @@
       <c r="D135" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2412</v>
       </c>
@@ -2598,8 +3243,12 @@
       <c r="D136" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2412</v>
       </c>
@@ -2612,8 +3261,12 @@
       <c r="D137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2412</v>
       </c>
@@ -2626,8 +3279,12 @@
       <c r="D138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2412</v>
       </c>
@@ -2640,8 +3297,12 @@
       <c r="D139" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2412</v>
       </c>
@@ -2654,8 +3315,12 @@
       <c r="D140" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2412</v>
       </c>
@@ -2668,8 +3333,12 @@
       <c r="D141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2412</v>
       </c>
@@ -2682,8 +3351,12 @@
       <c r="D142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2412</v>
       </c>
@@ -2696,8 +3369,12 @@
       <c r="D143" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2412</v>
       </c>
@@ -2710,8 +3387,12 @@
       <c r="D144" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2412</v>
       </c>
@@ -2724,8 +3405,12 @@
       <c r="D145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2412</v>
       </c>
@@ -2738,8 +3423,12 @@
       <c r="D146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2412</v>
       </c>
@@ -2752,8 +3441,12 @@
       <c r="D147" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2412</v>
       </c>
@@ -2766,8 +3459,12 @@
       <c r="D148" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2412</v>
       </c>
@@ -2780,8 +3477,12 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2412</v>
       </c>
@@ -2794,8 +3495,12 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2412</v>
       </c>
@@ -2808,8 +3513,12 @@
       <c r="D151" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2412</v>
       </c>
@@ -2822,8 +3531,12 @@
       <c r="D152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2412</v>
       </c>
@@ -2836,8 +3549,12 @@
       <c r="D153" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2412</v>
       </c>
@@ -2850,8 +3567,12 @@
       <c r="D154" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2412</v>
       </c>
@@ -2864,8 +3585,12 @@
       <c r="D155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2412</v>
       </c>
@@ -2878,8 +3603,12 @@
       <c r="D156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2412</v>
       </c>
@@ -2892,8 +3621,12 @@
       <c r="D157" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2412</v>
       </c>
@@ -2906,8 +3639,12 @@
       <c r="D158" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2412</v>
       </c>
@@ -2920,8 +3657,12 @@
       <c r="D159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2412</v>
       </c>
@@ -2934,8 +3675,12 @@
       <c r="D160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2412</v>
       </c>
@@ -2948,8 +3693,12 @@
       <c r="D161" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2412</v>
       </c>
@@ -2962,8 +3711,12 @@
       <c r="D162" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2412</v>
       </c>
@@ -2976,8 +3729,12 @@
       <c r="D163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2412</v>
       </c>
@@ -2990,8 +3747,12 @@
       <c r="D164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2412</v>
       </c>
@@ -3004,8 +3765,12 @@
       <c r="D165" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2412</v>
       </c>
@@ -3018,8 +3783,12 @@
       <c r="D166" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2412</v>
       </c>
@@ -3032,8 +3801,12 @@
       <c r="D167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2412</v>
       </c>
@@ -3046,8 +3819,12 @@
       <c r="D168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2412</v>
       </c>
@@ -3060,8 +3837,12 @@
       <c r="D169" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2412</v>
       </c>
@@ -3074,8 +3855,12 @@
       <c r="D170" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2412</v>
       </c>
@@ -3088,8 +3873,12 @@
       <c r="D171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2412</v>
       </c>
@@ -3102,8 +3891,12 @@
       <c r="D172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2412</v>
       </c>
@@ -3116,8 +3909,12 @@
       <c r="D173" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2412</v>
       </c>
@@ -3130,8 +3927,12 @@
       <c r="D174" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2412</v>
       </c>
@@ -3144,8 +3945,12 @@
       <c r="D175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2412</v>
       </c>
@@ -3158,8 +3963,12 @@
       <c r="D176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2412</v>
       </c>
@@ -3172,8 +3981,12 @@
       <c r="D177" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2412</v>
       </c>
@@ -3186,8 +3999,12 @@
       <c r="D178" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2412</v>
       </c>
@@ -3200,8 +4017,12 @@
       <c r="D179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2412</v>
       </c>
@@ -3214,8 +4035,12 @@
       <c r="D180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2412</v>
       </c>
@@ -3228,14 +4053,18 @@
       <c r="D181" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G181" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E182" s="1">
+      <c r="G182" s="1">
         <f>SUBTOTAL(103,Table1[turnover])</f>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/SMT/limit_trade.xlsx
+++ b/SMT/limit_trade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F72B1B-BC23-410D-8723-FDA5E66F7820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB4E11-D196-4F4D-8531-69F6D0700849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="900" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="15">
   <si>
     <t>periods</t>
   </si>
@@ -55,11 +55,34 @@
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb2501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,17 +132,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -263,7 +309,62 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -448,20 +549,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}" name="Table1" displayName="Table1" ref="A1:G182" totalsRowCount="1" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}" name="Table1" displayName="Table1" ref="A1:I182" totalsRowCount="1" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
     <sortCondition descending="1" ref="C3:C61"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7EA9A56C-B589-4323-83FB-F5E18727162E}" name="price" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3F4DD5BD-762C-4EC4-B45C-414E85A52898}" name="lots" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</calculatedColumnFormula>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7EA9A56C-B589-4323-83FB-F5E18727162E}" name="price" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3F4DD5BD-762C-4EC4-B45C-414E85A52898}" name="lots" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8625F4A1-91E0-484A-AEA5-2E91E81C9D66}" name="multiply" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{157B86AC-C818-48E9-B396-1A910F51B3A0}" name="instrument" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,12 +869,14 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,10 +896,16 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2410</v>
       </c>
@@ -811,14 +922,20 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>6100</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-2995.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="4">
+        <v>513060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2410</v>
       </c>
@@ -835,14 +952,20 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="F3" s="1">
-        <v>6100</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>2812.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>2812.1000000000004</v>
+      </c>
+      <c r="I3" s="4">
+        <v>513060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2410</v>
       </c>
@@ -859,14 +982,20 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>3300</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>-1729.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>-1729.2000000000003</v>
+      </c>
+      <c r="I4" s="4">
+        <v>513330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2410</v>
       </c>
@@ -883,14 +1012,20 @@
         <v>0.499</v>
       </c>
       <c r="F5" s="1">
-        <v>3300</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>1646.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>1646.6999999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <v>513330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2410</v>
       </c>
@@ -903,12 +1038,24 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
+      <c r="E6" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19</v>
+      </c>
       <c r="G6" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>-1259.7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>512690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2410</v>
       </c>
@@ -922,11 +1069,14 @@
         <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2410</v>
       </c>
@@ -940,11 +1090,14 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2410</v>
       </c>
@@ -957,12 +1110,24 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
+      <c r="E9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
       <c r="G9" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>-1950</v>
+      </c>
+      <c r="I9" s="4">
+        <v>513310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2410</v>
       </c>
@@ -976,11 +1141,14 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2410</v>
       </c>
@@ -994,11 +1162,14 @@
         <v>-1</v>
       </c>
       <c r="G11" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2410</v>
       </c>
@@ -1012,11 +1183,14 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2410</v>
       </c>
@@ -1030,11 +1204,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2410</v>
       </c>
@@ -1048,11 +1225,14 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2410</v>
       </c>
@@ -1066,11 +1246,14 @@
         <v>-1</v>
       </c>
       <c r="G15" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2410</v>
       </c>
@@ -1084,11 +1267,14 @@
         <v>-1</v>
       </c>
       <c r="G16" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2410</v>
       </c>
@@ -1102,11 +1288,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2410</v>
       </c>
@@ -1120,11 +1309,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2410</v>
       </c>
@@ -1138,11 +1330,14 @@
         <v>-1</v>
       </c>
       <c r="G19" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2410</v>
       </c>
@@ -1156,11 +1351,14 @@
         <v>-1</v>
       </c>
       <c r="G20" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2410</v>
       </c>
@@ -1174,11 +1372,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2410</v>
       </c>
@@ -1192,11 +1393,14 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2410</v>
       </c>
@@ -1210,11 +1414,14 @@
         <v>-1</v>
       </c>
       <c r="G23" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2410</v>
       </c>
@@ -1228,11 +1435,14 @@
         <v>-1</v>
       </c>
       <c r="G24" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2410</v>
       </c>
@@ -1246,11 +1456,14 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2410</v>
       </c>
@@ -1264,11 +1477,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2410</v>
       </c>
@@ -1282,11 +1498,14 @@
         <v>-1</v>
       </c>
       <c r="G27" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2410</v>
       </c>
@@ -1300,11 +1519,14 @@
         <v>-1</v>
       </c>
       <c r="G28" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2410</v>
       </c>
@@ -1318,11 +1540,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2410</v>
       </c>
@@ -1336,11 +1561,14 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2410</v>
       </c>
@@ -1354,11 +1582,14 @@
         <v>-1</v>
       </c>
       <c r="G31" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2410</v>
       </c>
@@ -1371,12 +1602,24 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
+      <c r="E32" s="1">
+        <v>3531</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
       <c r="G32" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>-35310</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2410</v>
       </c>
@@ -1389,12 +1632,24 @@
       <c r="D33" s="1">
         <v>-1</v>
       </c>
+      <c r="E33" s="1">
+        <v>3495</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
       <c r="G33" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>34950</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2410</v>
       </c>
@@ -1407,12 +1662,24 @@
       <c r="D34" s="1">
         <v>-1</v>
       </c>
+      <c r="E34" s="1">
+        <v>2180</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
       <c r="G34" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>21800</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2410</v>
       </c>
@@ -1425,12 +1692,24 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
+      <c r="E35" s="1">
+        <v>2186</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
       <c r="G35" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>-21860</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2410</v>
       </c>
@@ -1443,12 +1722,12 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2410</v>
       </c>
@@ -1461,12 +1740,24 @@
       <c r="D37" s="1">
         <v>-1</v>
       </c>
+      <c r="E37" s="1">
+        <v>2213</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
       <c r="G37" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>22130</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2410</v>
       </c>
@@ -1479,12 +1770,12 @@
       <c r="D38" s="1">
         <v>-1</v>
       </c>
-      <c r="G38" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2410</v>
       </c>
@@ -1497,12 +1788,12 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2410</v>
       </c>
@@ -1515,12 +1806,12 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2410</v>
       </c>
@@ -1533,12 +1824,12 @@
       <c r="D41" s="1">
         <v>-1</v>
       </c>
-      <c r="G41" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2410</v>
       </c>
@@ -1551,12 +1842,12 @@
       <c r="D42" s="1">
         <v>-1</v>
       </c>
-      <c r="G42" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2410</v>
       </c>
@@ -1569,12 +1860,12 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2410</v>
       </c>
@@ -1587,12 +1878,12 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2410</v>
       </c>
@@ -1605,12 +1896,12 @@
       <c r="D45" s="1">
         <v>-1</v>
       </c>
-      <c r="G45" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2410</v>
       </c>
@@ -1623,12 +1914,12 @@
       <c r="D46" s="1">
         <v>-1</v>
       </c>
-      <c r="G46" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2410</v>
       </c>
@@ -1641,12 +1932,12 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2410</v>
       </c>
@@ -1659,12 +1950,12 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2410</v>
       </c>
@@ -1677,12 +1968,12 @@
       <c r="D49" s="1">
         <v>-1</v>
       </c>
-      <c r="G49" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2410</v>
       </c>
@@ -1695,12 +1986,12 @@
       <c r="D50" s="1">
         <v>-1</v>
       </c>
-      <c r="G50" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2410</v>
       </c>
@@ -1713,12 +2004,12 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2410</v>
       </c>
@@ -1731,12 +2022,12 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2410</v>
       </c>
@@ -1749,12 +2040,12 @@
       <c r="D53" s="1">
         <v>-1</v>
       </c>
-      <c r="G53" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2410</v>
       </c>
@@ -1767,12 +2058,12 @@
       <c r="D54" s="1">
         <v>-1</v>
       </c>
-      <c r="G54" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2410</v>
       </c>
@@ -1785,12 +2076,12 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2410</v>
       </c>
@@ -1803,12 +2094,12 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="G56" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2410</v>
       </c>
@@ -1821,12 +2112,12 @@
       <c r="D57" s="1">
         <v>-1</v>
       </c>
-      <c r="G57" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2410</v>
       </c>
@@ -1839,12 +2130,12 @@
       <c r="D58" s="1">
         <v>-1</v>
       </c>
-      <c r="G58" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2410</v>
       </c>
@@ -1857,12 +2148,12 @@
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="G59" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2410</v>
       </c>
@@ -1875,12 +2166,12 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2410</v>
       </c>
@@ -1893,12 +2184,12 @@
       <c r="D61" s="1">
         <v>-1</v>
       </c>
-      <c r="G61" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2411</v>
       </c>
@@ -1911,12 +2202,12 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2411</v>
       </c>
@@ -1929,12 +2220,12 @@
       <c r="D63" s="1">
         <v>-1</v>
       </c>
-      <c r="G63" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2411</v>
       </c>
@@ -1947,12 +2238,12 @@
       <c r="D64" s="1">
         <v>-1</v>
       </c>
-      <c r="G64" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2411</v>
       </c>
@@ -1965,12 +2256,12 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2411</v>
       </c>
@@ -1983,12 +2274,12 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="G66" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2411</v>
       </c>
@@ -2001,12 +2292,12 @@
       <c r="D67" s="1">
         <v>-1</v>
       </c>
-      <c r="G67" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2411</v>
       </c>
@@ -2019,12 +2310,12 @@
       <c r="D68" s="1">
         <v>-1</v>
       </c>
-      <c r="G68" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2411</v>
       </c>
@@ -2037,12 +2328,12 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2411</v>
       </c>
@@ -2055,12 +2346,12 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="G70" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2411</v>
       </c>
@@ -2073,12 +2364,12 @@
       <c r="D71" s="1">
         <v>-1</v>
       </c>
-      <c r="G71" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2411</v>
       </c>
@@ -2091,12 +2382,12 @@
       <c r="D72" s="1">
         <v>-1</v>
       </c>
-      <c r="G72" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2411</v>
       </c>
@@ -2109,12 +2400,12 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2411</v>
       </c>
@@ -2127,12 +2418,12 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="G74" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2411</v>
       </c>
@@ -2145,12 +2436,12 @@
       <c r="D75" s="1">
         <v>-1</v>
       </c>
-      <c r="G75" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2411</v>
       </c>
@@ -2163,12 +2454,12 @@
       <c r="D76" s="1">
         <v>-1</v>
       </c>
-      <c r="G76" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2411</v>
       </c>
@@ -2181,12 +2472,12 @@
       <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2411</v>
       </c>
@@ -2199,12 +2490,12 @@
       <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2411</v>
       </c>
@@ -2217,12 +2508,12 @@
       <c r="D79" s="1">
         <v>-1</v>
       </c>
-      <c r="G79" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2411</v>
       </c>
@@ -2235,12 +2526,12 @@
       <c r="D80" s="1">
         <v>-1</v>
       </c>
-      <c r="G80" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2411</v>
       </c>
@@ -2253,12 +2544,12 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-      <c r="G81" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2411</v>
       </c>
@@ -2271,12 +2562,12 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2411</v>
       </c>
@@ -2289,12 +2580,12 @@
       <c r="D83" s="1">
         <v>-1</v>
       </c>
-      <c r="G83" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2411</v>
       </c>
@@ -2307,12 +2598,12 @@
       <c r="D84" s="1">
         <v>-1</v>
       </c>
-      <c r="G84" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2411</v>
       </c>
@@ -2325,12 +2616,12 @@
       <c r="D85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2411</v>
       </c>
@@ -2343,12 +2634,12 @@
       <c r="D86" s="1">
         <v>1</v>
       </c>
-      <c r="G86" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2411</v>
       </c>
@@ -2361,12 +2652,12 @@
       <c r="D87" s="1">
         <v>-1</v>
       </c>
-      <c r="G87" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2411</v>
       </c>
@@ -2379,12 +2670,12 @@
       <c r="D88" s="1">
         <v>-1</v>
       </c>
-      <c r="G88" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2411</v>
       </c>
@@ -2397,12 +2688,12 @@
       <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2411</v>
       </c>
@@ -2415,12 +2706,12 @@
       <c r="D90" s="1">
         <v>1</v>
       </c>
-      <c r="G90" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2411</v>
       </c>
@@ -2433,12 +2724,12 @@
       <c r="D91" s="1">
         <v>-1</v>
       </c>
-      <c r="G91" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2411</v>
       </c>
@@ -2451,12 +2742,12 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-      <c r="G92" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2411</v>
       </c>
@@ -2469,12 +2760,12 @@
       <c r="D93" s="1">
         <v>-1</v>
       </c>
-      <c r="G93" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2411</v>
       </c>
@@ -2487,12 +2778,12 @@
       <c r="D94" s="1">
         <v>-1</v>
       </c>
-      <c r="G94" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2411</v>
       </c>
@@ -2505,12 +2796,12 @@
       <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2411</v>
       </c>
@@ -2523,12 +2814,12 @@
       <c r="D96" s="1">
         <v>1</v>
       </c>
-      <c r="G96" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2411</v>
       </c>
@@ -2541,12 +2832,12 @@
       <c r="D97" s="1">
         <v>-1</v>
       </c>
-      <c r="G97" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2411</v>
       </c>
@@ -2559,12 +2850,12 @@
       <c r="D98" s="1">
         <v>-1</v>
       </c>
-      <c r="G98" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2411</v>
       </c>
@@ -2577,12 +2868,12 @@
       <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="G99" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2411</v>
       </c>
@@ -2595,12 +2886,12 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2411</v>
       </c>
@@ -2613,12 +2904,12 @@
       <c r="D101" s="1">
         <v>-1</v>
       </c>
-      <c r="G101" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2411</v>
       </c>
@@ -2631,12 +2922,12 @@
       <c r="D102" s="1">
         <v>-1</v>
       </c>
-      <c r="G102" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2411</v>
       </c>
@@ -2649,12 +2940,12 @@
       <c r="D103" s="1">
         <v>1</v>
       </c>
-      <c r="G103" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2411</v>
       </c>
@@ -2667,12 +2958,12 @@
       <c r="D104" s="1">
         <v>1</v>
       </c>
-      <c r="G104" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2411</v>
       </c>
@@ -2685,12 +2976,12 @@
       <c r="D105" s="1">
         <v>-1</v>
       </c>
-      <c r="G105" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2411</v>
       </c>
@@ -2703,12 +2994,12 @@
       <c r="D106" s="1">
         <v>-1</v>
       </c>
-      <c r="G106" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2411</v>
       </c>
@@ -2721,12 +3012,12 @@
       <c r="D107" s="1">
         <v>1</v>
       </c>
-      <c r="G107" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2411</v>
       </c>
@@ -2739,12 +3030,12 @@
       <c r="D108" s="1">
         <v>1</v>
       </c>
-      <c r="G108" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2411</v>
       </c>
@@ -2757,12 +3048,12 @@
       <c r="D109" s="1">
         <v>-1</v>
       </c>
-      <c r="G109" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2411</v>
       </c>
@@ -2775,12 +3066,12 @@
       <c r="D110" s="1">
         <v>-1</v>
       </c>
-      <c r="G110" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2411</v>
       </c>
@@ -2793,12 +3084,12 @@
       <c r="D111" s="1">
         <v>1</v>
       </c>
-      <c r="G111" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2411</v>
       </c>
@@ -2811,12 +3102,12 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-      <c r="G112" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2411</v>
       </c>
@@ -2829,12 +3120,12 @@
       <c r="D113" s="1">
         <v>-1</v>
       </c>
-      <c r="G113" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2411</v>
       </c>
@@ -2847,12 +3138,12 @@
       <c r="D114" s="1">
         <v>-1</v>
       </c>
-      <c r="G114" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2411</v>
       </c>
@@ -2865,12 +3156,12 @@
       <c r="D115" s="1">
         <v>1</v>
       </c>
-      <c r="G115" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2411</v>
       </c>
@@ -2883,12 +3174,12 @@
       <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="G116" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2411</v>
       </c>
@@ -2901,12 +3192,12 @@
       <c r="D117" s="1">
         <v>-1</v>
       </c>
-      <c r="G117" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2411</v>
       </c>
@@ -2919,12 +3210,12 @@
       <c r="D118" s="1">
         <v>-1</v>
       </c>
-      <c r="G118" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2411</v>
       </c>
@@ -2937,12 +3228,12 @@
       <c r="D119" s="1">
         <v>1</v>
       </c>
-      <c r="G119" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2411</v>
       </c>
@@ -2955,12 +3246,12 @@
       <c r="D120" s="1">
         <v>1</v>
       </c>
-      <c r="G120" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2411</v>
       </c>
@@ -2973,12 +3264,12 @@
       <c r="D121" s="1">
         <v>-1</v>
       </c>
-      <c r="G121" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2412</v>
       </c>
@@ -2991,12 +3282,12 @@
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="G122" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2412</v>
       </c>
@@ -3009,12 +3300,12 @@
       <c r="D123" s="1">
         <v>-1</v>
       </c>
-      <c r="G123" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2412</v>
       </c>
@@ -3027,12 +3318,12 @@
       <c r="D124" s="1">
         <v>-1</v>
       </c>
-      <c r="G124" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2412</v>
       </c>
@@ -3045,12 +3336,12 @@
       <c r="D125" s="1">
         <v>1</v>
       </c>
-      <c r="G125" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2412</v>
       </c>
@@ -3063,12 +3354,12 @@
       <c r="D126" s="1">
         <v>1</v>
       </c>
-      <c r="G126" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2412</v>
       </c>
@@ -3081,12 +3372,12 @@
       <c r="D127" s="1">
         <v>-1</v>
       </c>
-      <c r="G127" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2412</v>
       </c>
@@ -3099,12 +3390,12 @@
       <c r="D128" s="1">
         <v>-1</v>
       </c>
-      <c r="G128" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2412</v>
       </c>
@@ -3117,12 +3408,12 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="G129" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2412</v>
       </c>
@@ -3135,12 +3426,12 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="G130" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2412</v>
       </c>
@@ -3153,12 +3444,12 @@
       <c r="D131" s="1">
         <v>-1</v>
       </c>
-      <c r="G131" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2412</v>
       </c>
@@ -3171,12 +3462,12 @@
       <c r="D132" s="1">
         <v>-1</v>
       </c>
-      <c r="G132" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2412</v>
       </c>
@@ -3189,12 +3480,12 @@
       <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="G133" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2412</v>
       </c>
@@ -3207,12 +3498,12 @@
       <c r="D134" s="1">
         <v>1</v>
       </c>
-      <c r="G134" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2412</v>
       </c>
@@ -3225,12 +3516,12 @@
       <c r="D135" s="1">
         <v>-1</v>
       </c>
-      <c r="G135" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2412</v>
       </c>
@@ -3243,12 +3534,12 @@
       <c r="D136" s="1">
         <v>-1</v>
       </c>
-      <c r="G136" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2412</v>
       </c>
@@ -3261,12 +3552,12 @@
       <c r="D137" s="1">
         <v>1</v>
       </c>
-      <c r="G137" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2412</v>
       </c>
@@ -3279,12 +3570,12 @@
       <c r="D138" s="1">
         <v>1</v>
       </c>
-      <c r="G138" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2412</v>
       </c>
@@ -3297,12 +3588,12 @@
       <c r="D139" s="1">
         <v>-1</v>
       </c>
-      <c r="G139" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2412</v>
       </c>
@@ -3315,12 +3606,12 @@
       <c r="D140" s="1">
         <v>-1</v>
       </c>
-      <c r="G140" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2412</v>
       </c>
@@ -3333,12 +3624,12 @@
       <c r="D141" s="1">
         <v>1</v>
       </c>
-      <c r="G141" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2412</v>
       </c>
@@ -3351,12 +3642,12 @@
       <c r="D142" s="1">
         <v>1</v>
       </c>
-      <c r="G142" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2412</v>
       </c>
@@ -3369,12 +3660,12 @@
       <c r="D143" s="1">
         <v>-1</v>
       </c>
-      <c r="G143" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2412</v>
       </c>
@@ -3387,12 +3678,12 @@
       <c r="D144" s="1">
         <v>-1</v>
       </c>
-      <c r="G144" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2412</v>
       </c>
@@ -3405,12 +3696,12 @@
       <c r="D145" s="1">
         <v>1</v>
       </c>
-      <c r="G145" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2412</v>
       </c>
@@ -3423,12 +3714,12 @@
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="G146" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2412</v>
       </c>
@@ -3441,12 +3732,12 @@
       <c r="D147" s="1">
         <v>-1</v>
       </c>
-      <c r="G147" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2412</v>
       </c>
@@ -3459,12 +3750,12 @@
       <c r="D148" s="1">
         <v>-1</v>
       </c>
-      <c r="G148" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2412</v>
       </c>
@@ -3477,12 +3768,12 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="G149" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2412</v>
       </c>
@@ -3495,12 +3786,12 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="G150" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2412</v>
       </c>
@@ -3513,12 +3804,12 @@
       <c r="D151" s="1">
         <v>-1</v>
       </c>
-      <c r="G151" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2412</v>
       </c>
@@ -3531,12 +3822,12 @@
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="G152" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2412</v>
       </c>
@@ -3549,12 +3840,12 @@
       <c r="D153" s="1">
         <v>-1</v>
       </c>
-      <c r="G153" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2412</v>
       </c>
@@ -3567,12 +3858,12 @@
       <c r="D154" s="1">
         <v>-1</v>
       </c>
-      <c r="G154" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2412</v>
       </c>
@@ -3585,12 +3876,12 @@
       <c r="D155" s="1">
         <v>1</v>
       </c>
-      <c r="G155" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2412</v>
       </c>
@@ -3603,12 +3894,12 @@
       <c r="D156" s="1">
         <v>1</v>
       </c>
-      <c r="G156" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2412</v>
       </c>
@@ -3621,12 +3912,12 @@
       <c r="D157" s="1">
         <v>-1</v>
       </c>
-      <c r="G157" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2412</v>
       </c>
@@ -3639,12 +3930,12 @@
       <c r="D158" s="1">
         <v>-1</v>
       </c>
-      <c r="G158" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2412</v>
       </c>
@@ -3657,12 +3948,12 @@
       <c r="D159" s="1">
         <v>1</v>
       </c>
-      <c r="G159" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2412</v>
       </c>
@@ -3675,12 +3966,12 @@
       <c r="D160" s="1">
         <v>1</v>
       </c>
-      <c r="G160" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2412</v>
       </c>
@@ -3693,12 +3984,12 @@
       <c r="D161" s="1">
         <v>-1</v>
       </c>
-      <c r="G161" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2412</v>
       </c>
@@ -3711,12 +4002,12 @@
       <c r="D162" s="1">
         <v>-1</v>
       </c>
-      <c r="G162" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2412</v>
       </c>
@@ -3729,12 +4020,12 @@
       <c r="D163" s="1">
         <v>1</v>
       </c>
-      <c r="G163" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2412</v>
       </c>
@@ -3747,12 +4038,12 @@
       <c r="D164" s="1">
         <v>1</v>
       </c>
-      <c r="G164" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2412</v>
       </c>
@@ -3765,12 +4056,12 @@
       <c r="D165" s="1">
         <v>-1</v>
       </c>
-      <c r="G165" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2412</v>
       </c>
@@ -3783,12 +4074,12 @@
       <c r="D166" s="1">
         <v>-1</v>
       </c>
-      <c r="G166" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2412</v>
       </c>
@@ -3801,12 +4092,12 @@
       <c r="D167" s="1">
         <v>1</v>
       </c>
-      <c r="G167" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2412</v>
       </c>
@@ -3819,12 +4110,12 @@
       <c r="D168" s="1">
         <v>1</v>
       </c>
-      <c r="G168" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2412</v>
       </c>
@@ -3837,12 +4128,12 @@
       <c r="D169" s="1">
         <v>-1</v>
       </c>
-      <c r="G169" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2412</v>
       </c>
@@ -3855,12 +4146,12 @@
       <c r="D170" s="1">
         <v>-1</v>
       </c>
-      <c r="G170" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2412</v>
       </c>
@@ -3873,12 +4164,12 @@
       <c r="D171" s="1">
         <v>1</v>
       </c>
-      <c r="G171" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2412</v>
       </c>
@@ -3891,12 +4182,12 @@
       <c r="D172" s="1">
         <v>1</v>
       </c>
-      <c r="G172" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2412</v>
       </c>
@@ -3909,12 +4200,12 @@
       <c r="D173" s="1">
         <v>-1</v>
       </c>
-      <c r="G173" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2412</v>
       </c>
@@ -3927,12 +4218,12 @@
       <c r="D174" s="1">
         <v>-1</v>
       </c>
-      <c r="G174" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2412</v>
       </c>
@@ -3945,12 +4236,12 @@
       <c r="D175" s="1">
         <v>1</v>
       </c>
-      <c r="G175" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2412</v>
       </c>
@@ -3963,12 +4254,12 @@
       <c r="D176" s="1">
         <v>1</v>
       </c>
-      <c r="G176" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2412</v>
       </c>
@@ -3981,12 +4272,12 @@
       <c r="D177" s="1">
         <v>-1</v>
       </c>
-      <c r="G177" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2412</v>
       </c>
@@ -3999,12 +4290,12 @@
       <c r="D178" s="1">
         <v>-1</v>
       </c>
-      <c r="G178" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2412</v>
       </c>
@@ -4017,12 +4308,12 @@
       <c r="D179" s="1">
         <v>1</v>
       </c>
-      <c r="G179" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2412</v>
       </c>
@@ -4035,12 +4326,12 @@
       <c r="D180" s="1">
         <v>1</v>
       </c>
-      <c r="G180" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2412</v>
       </c>
@@ -4053,16 +4344,16 @@
       <c r="D181" s="1">
         <v>-1</v>
       </c>
-      <c r="G181" s="1">
-        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G182" s="1">
+      <c r="H182" s="1">
         <f>SUBTOTAL(103,Table1[turnover])</f>
         <v>180</v>
       </c>

--- a/SMT/limit_trade.xlsx
+++ b/SMT/limit_trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB4E11-D196-4F4D-8531-69F6D0700849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225E9A4-68CA-446F-A4F8-E37C369FD240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="900" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1245" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="15">
   <si>
     <t>periods</t>
   </si>
@@ -80,8 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -142,6 +143,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +242,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     </dxf>
     <dxf>
       <font>
@@ -401,6 +407,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     </dxf>
     <dxf>
       <font>
@@ -860,7 +867,7 @@
   <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +876,7 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="4" bestFit="1" customWidth="1"/>
@@ -889,7 +896,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -918,7 +925,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>0.49099999999999999</v>
       </c>
       <c r="F2" s="1">
@@ -948,7 +955,7 @@
       <c r="D3" s="1">
         <v>-1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>0.46100000000000002</v>
       </c>
       <c r="F3" s="1">
@@ -978,7 +985,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>0.52400000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -1008,7 +1015,7 @@
       <c r="D5" s="1">
         <v>-1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>0.499</v>
       </c>
       <c r="F5" s="1">
@@ -1038,7 +1045,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>0.66300000000000003</v>
       </c>
       <c r="F6" s="1">
@@ -1068,12 +1075,21 @@
       <c r="D7" s="1">
         <v>-1</v>
       </c>
+      <c r="E7" s="6">
+        <v>0.6344736842105263</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19</v>
+      </c>
       <c r="G7" s="1">
         <v>100</v>
       </c>
       <c r="H7" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>1205.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>512690</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,12 +1105,21 @@
       <c r="D8" s="1">
         <v>-1</v>
       </c>
+      <c r="E8" s="6">
+        <v>1.4109230769230767</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>1834.1999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>513310</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1110,7 +1135,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>1.5</v>
       </c>
       <c r="F9" s="1">
@@ -1140,12 +1165,21 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
+      <c r="E10" s="6">
+        <v>1.361</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
       <c r="G10" s="1">
         <v>100</v>
       </c>
       <c r="H10" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-2041.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>513880</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1602,7 +1636,7 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <v>3531</v>
       </c>
       <c r="F32" s="1">
@@ -1632,7 +1666,7 @@
       <c r="D33" s="1">
         <v>-1</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <v>3495</v>
       </c>
       <c r="F33" s="1">
@@ -1662,7 +1696,7 @@
       <c r="D34" s="1">
         <v>-1</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <v>2180</v>
       </c>
       <c r="F34" s="1">
@@ -1692,7 +1726,7 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <v>2186</v>
       </c>
       <c r="F35" s="1">
@@ -1740,7 +1774,7 @@
       <c r="D37" s="1">
         <v>-1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6">
         <v>2213</v>
       </c>
       <c r="F37" s="1">
@@ -1768,11 +1802,23 @@
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3484</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
       </c>
       <c r="H38" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-34840</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1786,11 +1832,23 @@
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3490</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
       </c>
       <c r="H39" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>34900</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">

--- a/SMT/limit_trade.xlsx
+++ b/SMT/limit_trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6225E9A4-68CA-446F-A4F8-E37C369FD240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA6C3F-2571-456D-85BB-743F4CA4E773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1245" windowWidth="21780" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-160" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,10 +143,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +242,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+      <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     </dxf>
     <dxf>
       <font>
@@ -407,7 +407,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+      <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     </dxf>
     <dxf>
       <font>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,12 +1237,21 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
+      <c r="E13" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1">
         <v>100</v>
       </c>
       <c r="H13" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-2850</v>
+      </c>
+      <c r="I13" s="4">
+        <v>600900</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/SMT/limit_trade.xlsx
+++ b/SMT/limit_trade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA6C3F-2571-456D-85BB-743F4CA4E773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D994A1F-51FC-427A-9766-BFD492DCDB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21710" yWindow="-160" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,14 +139,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +172,46 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="176" formatCode="000000"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -315,44 +357,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="000000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -557,21 +561,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}" name="Table1" displayName="Table1" ref="A1:I182" totalsRowCount="1" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="A1:I181" xr:uid="{F66698B5-7B31-4E3B-9D58-A06C35DFC8EE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H61">
     <sortCondition descending="1" ref="C3:C61"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="16" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{7EA9A56C-B589-4323-83FB-F5E18727162E}" name="price" dataDxfId="13" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3F4DD5BD-762C-4EC4-B45C-414E85A52898}" name="lots" dataDxfId="12" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8625F4A1-91E0-484A-AEA5-2E91E81C9D66}" name="multiply" dataDxfId="11" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{689305E3-2BDE-4465-93CB-C9293A11376E}" name="periods" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B392E4F3-77DD-4C31-8C44-0B445A00A7C0}" name="ser_no" dataDxfId="16" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{194650CC-4CBC-4C97-9E31-6DB2719942A4}" name="type" dataDxfId="15" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D108160F-4B76-4AA9-80E8-9FECD7EBA73F}" name="direction" dataDxfId="14" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{7EA9A56C-B589-4323-83FB-F5E18727162E}" name="price" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3F4DD5BD-762C-4EC4-B45C-414E85A52898}" name="lots" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8625F4A1-91E0-484A-AEA5-2E91E81C9D66}" name="multiply" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A411B449-A9B0-41E1-BD44-689776FD1819}" name="turnover" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{157B86AC-C818-48E9-B396-1A910F51B3A0}" name="instrument" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{157B86AC-C818-48E9-B396-1A910F51B3A0}" name="instrument" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,10 +881,10 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -896,7 +901,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -908,7 +913,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -925,7 +930,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0.49099999999999999</v>
       </c>
       <c r="F2" s="1">
@@ -938,7 +943,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-2995.1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>513060</v>
       </c>
     </row>
@@ -955,7 +960,7 @@
       <c r="D3" s="1">
         <v>-1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="F3" s="1">
@@ -968,7 +973,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>2812.1000000000004</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>513060</v>
       </c>
     </row>
@@ -985,7 +990,7 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.52400000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -998,7 +1003,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-1729.2000000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>513330</v>
       </c>
     </row>
@@ -1015,7 +1020,7 @@
       <c r="D5" s="1">
         <v>-1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.499</v>
       </c>
       <c r="F5" s="1">
@@ -1028,7 +1033,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>1646.6999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>513330</v>
       </c>
     </row>
@@ -1045,7 +1050,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.66300000000000003</v>
       </c>
       <c r="F6" s="1">
@@ -1058,7 +1063,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-1259.7</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>512690</v>
       </c>
     </row>
@@ -1075,7 +1080,7 @@
       <c r="D7" s="1">
         <v>-1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.6344736842105263</v>
       </c>
       <c r="F7" s="1">
@@ -1088,7 +1093,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>1205.5</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>512690</v>
       </c>
     </row>
@@ -1105,7 +1110,7 @@
       <c r="D8" s="1">
         <v>-1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>1.4109230769230767</v>
       </c>
       <c r="F8" s="1">
@@ -1118,7 +1123,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>1834.1999999999998</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>513310</v>
       </c>
     </row>
@@ -1135,7 +1140,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1.5</v>
       </c>
       <c r="F9" s="1">
@@ -1148,7 +1153,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-1950</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>513310</v>
       </c>
     </row>
@@ -1165,7 +1170,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>1.361</v>
       </c>
       <c r="F10" s="1">
@@ -1178,7 +1183,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-2041.5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>513880</v>
       </c>
     </row>
@@ -1195,12 +1200,21 @@
       <c r="D11" s="1">
         <v>-1</v>
       </c>
+      <c r="E11" s="4">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
       <c r="G11" s="1">
         <v>100</v>
       </c>
       <c r="H11" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>2001.0000000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>513880</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,7 +1251,7 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>28.5</v>
       </c>
       <c r="F13" s="1">
@@ -1250,7 +1264,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-2850</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>600900</v>
       </c>
     </row>
@@ -1267,12 +1281,21 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="4">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <v>100</v>
       </c>
       <c r="H14" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-1957.9999999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>600988</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,12 +1332,21 @@
       <c r="D16" s="1">
         <v>-1</v>
       </c>
+      <c r="E16" s="4">
+        <v>2.036</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
       <c r="G16" s="1">
         <v>100</v>
       </c>
       <c r="H16" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>3054</v>
+      </c>
+      <c r="I16" s="6">
+        <v>513500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1330,12 +1362,21 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
+      <c r="E17" s="4">
+        <v>1.919</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
       <c r="G17" s="1">
         <v>100</v>
       </c>
       <c r="H17" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-2878.5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>513500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,12 +1392,21 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
+      <c r="E18" s="4">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
       <c r="G18" s="1">
         <v>100</v>
       </c>
       <c r="H18" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>-3058</v>
+      </c>
+      <c r="I18" s="6">
+        <v>159660</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,12 +1422,21 @@
       <c r="D19" s="1">
         <v>-1</v>
       </c>
+      <c r="E19" s="4">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
       <c r="G19" s="1">
         <v>100</v>
       </c>
       <c r="H19" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
-        <v>0</v>
+        <v>3152.0000000000005</v>
+      </c>
+      <c r="I19" s="6">
+        <v>159660</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1645,7 +1704,7 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>3531</v>
       </c>
       <c r="F32" s="1">
@@ -1658,7 +1717,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-35310</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1675,7 +1734,7 @@
       <c r="D33" s="1">
         <v>-1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>3495</v>
       </c>
       <c r="F33" s="1">
@@ -1688,7 +1747,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>34950</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1705,7 +1764,7 @@
       <c r="D34" s="1">
         <v>-1</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>2180</v>
       </c>
       <c r="F34" s="1">
@@ -1718,7 +1777,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>21800</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1735,7 +1794,7 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>2186</v>
       </c>
       <c r="F35" s="1">
@@ -1748,7 +1807,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-21860</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1765,6 +1824,12 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
       <c r="H36" s="1">
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>0</v>
@@ -1783,7 +1848,7 @@
       <c r="D37" s="1">
         <v>-1</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>2213</v>
       </c>
       <c r="F37" s="1">
@@ -1796,7 +1861,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>22130</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1813,7 +1878,7 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>3484</v>
       </c>
       <c r="F38" s="1">
@@ -1826,7 +1891,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>-34840</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1843,7 +1908,7 @@
       <c r="D39" s="1">
         <v>-1</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>3490</v>
       </c>
       <c r="F39" s="1">
@@ -1856,7 +1921,7 @@
         <f>Table1[[#This Row],[direction]]*Table1[[#This Row],[price]]*Table1[[#This Row],[lots]]*Table1[[#This Row],[multiply]]*-1</f>
         <v>34900</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="6" t="s">
         <v>11</v>
       </c>
     </row>
